--- a/analyses/scrapeUSDAseedmanual/scraping/usdaDataScraping_DMB.xlsx
+++ b/analyses/scrapeUSDAseedmanual/scraping/usdaDataScraping_DMB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielbuonaiuto/Documents/git/egret/analyses/scrapeUSDAseedmanual/scraping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\egret\analyses\scrapeUSDAseedmanual\scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CE5A84-0ADF-6843-81C7-F4A0825771AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B740116-0F05-44A5-913B-D43106FEF864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2420" windowWidth="23800" windowHeight="16380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="5340" windowWidth="19350" windowHeight="5720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="96">
   <si>
     <t>pdf_page_number</t>
   </si>
@@ -349,6 +349,10 @@
   </si>
   <si>
     <t>4--45</t>
+  </si>
+  <si>
+    <t>germ_rate_days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -359,13 +363,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -686,7 +690,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
@@ -700,7 +704,7 @@
     <col min="10" max="10" width="41.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,7 +746,7 @@
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -750,7 +754,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -758,7 +762,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -766,7 +770,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -774,7 +778,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -782,7 +786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -790,7 +794,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -798,7 +802,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -806,7 +810,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -814,7 +818,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -822,7 +826,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
@@ -830,7 +834,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -838,7 +842,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -846,7 +850,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -854,7 +858,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -862,7 +866,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -870,7 +874,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -878,7 +882,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
@@ -886,7 +890,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
@@ -894,7 +898,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -902,7 +906,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -910,7 +914,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -918,7 +922,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -926,7 +930,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -934,7 +938,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -942,7 +946,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -950,7 +954,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -958,7 +962,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -966,7 +970,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
@@ -974,7 +978,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -982,22 +986,22 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -1011,13 +1015,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AC4DDB-17EE-463A-9304-F699F6DBC2E2}">
-  <dimension ref="A1:AE15"/>
+  <dimension ref="A1:AF15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -1044,9 +1048,11 @@
     <col min="26" max="26" width="20" customWidth="1"/>
     <col min="27" max="27" width="28.6640625" customWidth="1"/>
     <col min="28" max="28" width="25.1640625" customWidth="1"/>
+    <col min="29" max="29" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1134,14 +1140,17 @@
       <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>672</v>
       </c>
@@ -1185,7 +1194,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>672</v>
       </c>
@@ -1229,7 +1238,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>672</v>
       </c>
@@ -1267,7 +1276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>687</v>
       </c>
@@ -1293,7 +1302,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>687</v>
       </c>
@@ -1310,7 +1319,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>687</v>
       </c>
@@ -1336,7 +1345,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>687</v>
       </c>
@@ -1362,7 +1371,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>687</v>
       </c>
@@ -1379,7 +1388,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>687</v>
       </c>
@@ -1411,7 +1420,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>687</v>
       </c>
@@ -1443,7 +1452,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>692</v>
       </c>
@@ -1472,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>692</v>
       </c>
@@ -1498,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>692</v>
       </c>
@@ -1524,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>692</v>
       </c>
